--- a/ssa_algorithms/results/Charts.xlsx
+++ b/ssa_algorithms/results/Charts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFD27AF-4EBA-40C5-BE8D-E5A584D4D21A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC47521-2C4D-4B9B-839A-89AFA423A639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,15 +11,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$1:$C$1121</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$B$1121</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$558:$G$2557</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1:$C$1121</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1:$D$1121</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$1:$B$1121</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$58:$F$2557</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$1:$D$1121</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$H$558:$H$2557</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$1:$C$1121</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$558:$G$2557</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$558:$H$2557</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$B$1121</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$58:$F$2557</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>keyw</t>
   </si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>17,05,2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -187,7 +187,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -327,7 +327,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -397,7 +397,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -467,7 +467,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3870,7 +3870,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4333875" y="385762"/>
-              <a:ext cx="5486400" cy="3424238"/>
+              <a:ext cx="5924550" cy="3424238"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3948,7 +3948,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4333874" y="3862387"/>
-              <a:ext cx="5495925" cy="3195638"/>
+              <a:ext cx="5934075" cy="3195638"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4026,7 +4026,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4333875" y="7100886"/>
-              <a:ext cx="5486400" cy="3395663"/>
+              <a:ext cx="5924550" cy="3395663"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4422,6 +4422,189 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40FF993E-593B-420D-BC3E-E7EDDB7ED62C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13925550" y="10858500"/>
+          <a:ext cx="5876925" cy="3343275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31209AA4-3AD3-4267-A258-86200B170C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13925550" y="14478000"/>
+          <a:ext cx="5886450" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE6D992-D63A-44FB-A763-1028589DADF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13925550" y="17907000"/>
+          <a:ext cx="5876925" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4690,8 +4873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
-      <selection activeCell="T103" sqref="T103"/>
+    <sheetView tabSelected="1" topLeftCell="D88" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="T98" sqref="T97:T98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6590,7 +6773,7 @@
       </c>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -6617,7 +6800,7 @@
       </c>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -6644,7 +6827,7 @@
       </c>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -6671,7 +6854,7 @@
       </c>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -6698,7 +6881,7 @@
       </c>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -6725,7 +6908,7 @@
       </c>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -6752,7 +6935,7 @@
       </c>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -6778,8 +6961,11 @@
         <v>9.3249823226235797</v>
       </c>
       <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="T103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -6806,7 +6992,7 @@
       </c>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -6833,7 +7019,7 @@
       </c>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -6860,7 +7046,7 @@
       </c>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -6887,7 +7073,7 @@
       </c>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -6914,7 +7100,7 @@
       </c>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -6941,7 +7127,7 @@
       </c>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -6968,7 +7154,7 @@
       </c>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -6995,7 +7181,7 @@
       </c>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>112</v>
       </c>

--- a/ssa_algorithms/results/Charts.xlsx
+++ b/ssa_algorithms/results/Charts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC47521-2C4D-4B9B-839A-89AFA423A639}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0202FA20-9150-42A6-A09E-CD76B523E59F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$G$558:$G$2557</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1:$C$1121</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1:$D$1121</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$558:$H$2557</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1:$B$1121</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$58:$F$2557</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$1:$D$1121</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$58:$F$2557</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$G$558:$G$2557</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$1:$B$1121</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1:$C$1121</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$558:$H$2557</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$H$558:$H$2557</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$H$558:$H$2557</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$558:$H$2557</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -117,7 +120,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -187,7 +190,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -257,7 +260,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -327,7 +330,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -345,6 +348,40 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>α</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
         <cx:tickLabels/>
         <cx:numFmt formatCode="0,0" sourceLinked="0"/>
       </cx:axis>
@@ -397,7 +434,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -415,6 +452,31 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>𝛽</a:t>
+                </a:r>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
         <cx:tickLabels/>
         <cx:numFmt formatCode="0,0" sourceLinked="0"/>
       </cx:axis>
@@ -467,7 +529,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -485,6 +547,40 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>λ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
         <cx:tickLabels/>
         <cx:numFmt formatCode="0,0" sourceLinked="0"/>
       </cx:axis>
@@ -4193,13 +4289,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>11501</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4235,8 +4331,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7219950" y="10858500"/>
-              <a:ext cx="5924550" cy="3424238"/>
+              <a:off x="7190213" y="10605275"/>
+              <a:ext cx="5874370" cy="3345250"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4426,21 +4522,21 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
+        <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40FF993E-593B-420D-BC3E-E7EDDB7ED62C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B612EB39-77DC-454D-805F-4870D856F5F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4463,7 +4559,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13925550" y="10858500"/>
+          <a:off x="13925550" y="11049000"/>
           <a:ext cx="5876925" cy="3343275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4498,10 +4594,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
+        <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31209AA4-3AD3-4267-A258-86200B170C58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2332ED-5B6B-4AE8-AC11-E260559418D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4546,23 +4642,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>111</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE6D992-D63A-44FB-A763-1028589DADF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001BAB25-9FDA-4366-ACC6-641A1DC1A696}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,7 +4681,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13925550" y="17907000"/>
+          <a:off x="14535150" y="17907000"/>
           <a:ext cx="5876925" cy="3314700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4873,8 +4969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D88" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="T98" sqref="T97:T98"/>
+    <sheetView tabSelected="1" topLeftCell="B91" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="V95" sqref="V95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
